--- a/biology/Zoologie/Carnosaur_3/Carnosaur_3.xlsx
+++ b/biology/Zoologie/Carnosaur_3/Carnosaur_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnosaur 3 (Carnosaur 3: Primal Species) est un film américain réalisé par Jonathan Winfrey, sorti en 1996.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe de terroristes s'empare d'un camion supposé contenir de l'uranium. À défaut d'uranium, le véhicule contient en réalité des dinosaures cryogénisés, deux vélociraptors et un T-rex. Les terroristes sont sauvagement tués et les dinosaures sont maintenant en liberté. Une équipe de militaires est engagée pour les capturer.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Carnosaur 3
 Titre original : Carnosaur 3: Primal Species
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Scott Valentine : le colonel Rance Higgins
 Janet Gunn : le docteur Hodges
@@ -631,7 +649,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il s'agit du dernier film de l'acteur Anthony Peck, décédé en juillet 1996 avant la sortie du film.
 Billy Burnette, qui interprète ici Ferguson, est surtout connu pour être le guitariste du groupe Fleetwood Mac.
@@ -665,7 +685,9 @@
           <t>Franchise Carnosaur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1993 : Carnosaur, de Adam Simon et Darren Moloney
 1995 : Carnosaur 2, de Louis Morneau
